--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -389,7 +389,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>16400</v>
+        <v>42000</v>
       </c>
     </row>
   </sheetData>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,30 @@
   </si>
   <si>
     <t>学生报名费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请姚吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给姚返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月水电气费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生档案袋和收据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初中数学老师工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴天亮返</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -422,24 +446,66 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="B4">
-        <f>SUM(B2:B3)</f>
-        <v>1616</v>
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B18">
         <v>42000</v>
       </c>
     </row>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -413,7 +413,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -442,7 +442,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>800</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="1:2">

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,6 +63,10 @@
   </si>
   <si>
     <t>吴天亮返</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请刘、杨吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +417,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -493,6 +497,20 @@
         <v>2000</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" s="1"/>
+    </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>4</v>
@@ -506,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B18">
-        <v>42000</v>
+        <v>45200</v>
       </c>
     </row>
   </sheetData>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>请刘、杨吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请汪、饶吃饭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饶小权工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -417,7 +425,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -505,8 +513,21 @@
         <v>218</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>260</v>
+      </c>
+    </row>
     <row r="12" spans="1:2">
-      <c r="B12" s="1"/>
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>400</v>
+      </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" s="1"/>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,10 @@
   </si>
   <si>
     <t>饶小权工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘、杨工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,7 +534,12 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" s="1"/>
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2000</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -429,7 +429,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -490,7 +490,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>48</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>刘、杨工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘秀明工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -429,7 +433,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -538,6 +542,14 @@
         <v>15</v>
       </c>
       <c r="B13" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
         <v>2000</v>
       </c>
     </row>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -50,10 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3月水电气费用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>学生档案袋和收据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -83,6 +79,10 @@
   </si>
   <si>
     <t>刘秀明工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水电气费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -483,15 +483,15 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>125</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
         <v>78</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -507,7 +507,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
         <v>2000</v>
@@ -515,7 +515,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
         <v>218</v>
@@ -523,7 +523,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
         <v>260</v>
@@ -531,7 +531,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
         <v>400</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
         <v>2000</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
         <v>2000</v>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -430,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -553,20 +553,35 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>11690</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>4</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>5</v>
       </c>
-      <c r="B18">
-        <v>45200</v>
+      <c r="B23">
+        <f ca="1">SUM(B23:B26)</f>
+        <v>61125</v>
       </c>
     </row>
   </sheetData>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>水电气费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600忘记杨工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,12 +437,13 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -557,14 +562,8 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16">
-        <f>SUM(B2:B15)</f>
-        <v>11690</v>
+      <c r="B15" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:2">

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>水电气费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请向长海、卓利军吃饭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -437,12 +441,12 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="1" max="1" width="21.75" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,8 +567,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17">
+        <f>SUM(B2:B16)</f>
+        <v>11490</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="1"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
@@ -579,7 +600,6 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <f ca="1">SUM(B23:B26)</f>
         <v>61125</v>
       </c>
     </row>

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>600忘记杨工资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>田鹏退款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +445,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -579,9 +583,11 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="B17">
-        <f>SUM(B2:B16)</f>
-        <v>11490</v>
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:2">

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>田鹏退款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买卫生纸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +449,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -591,7 +595,12 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="B18" s="1"/>
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">

--- a/第二期开支收入.xlsx
+++ b/第二期开支收入.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>开支项</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>请向长海、卓利军吃饭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600忘记杨工资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -574,8 +570,8 @@
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>18</v>
+      <c r="B15" s="1">
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -588,7 +584,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>300</v>
@@ -596,10 +592,18 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1600</v>
       </c>
     </row>
     <row r="22" spans="1:2">
